--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_39.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_39.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_9</t>
+          <t>model_1_39_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999045999155934</v>
+        <v>0.9370310595653608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8277030886263802</v>
+        <v>0.7337237275551844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8196940111038028</v>
+        <v>0.6414913288649925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997560924631919</v>
+        <v>0.9516158446579506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003971053982225902</v>
+        <v>0.2621098956304546</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152150239709723</v>
+        <v>1.780590659927976</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6449440675397693</v>
+        <v>1.282364729122793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001382982548846547</v>
+        <v>0.2903557556113333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05373829245222986</v>
+        <v>1.275205388506814</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01992750356222751</v>
+        <v>0.5119666938683165</v>
       </c>
       <c r="L2" t="n">
-        <v>1.00610560540202</v>
+        <v>0.9142550598336828</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02024134182313725</v>
+        <v>0.5200296575178074</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6626176516113</v>
+        <v>36.67798282838794</v>
       </c>
       <c r="O2" t="n">
-        <v>286.9977901948278</v>
+        <v>73.64256641661376</v>
       </c>
     </row>
     <row r="3">
@@ -561,95 +561,95 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999111192173873</v>
+        <v>0.9370073206350822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8276839088624001</v>
+        <v>0.733704450908218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8196669692308219</v>
+        <v>0.641815752344389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997895957835395</v>
+        <v>0.9513477678970529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003699686304608122</v>
+        <v>0.2622087095614933</v>
       </c>
       <c r="G3" t="n">
-        <v>1.152278494879773</v>
+        <v>1.780719562955003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.645040794751444</v>
+        <v>1.281204285148145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001193015039126832</v>
+        <v>0.2919644977692154</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05322788331161833</v>
+        <v>1.274970226165585</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01923456863204403</v>
+        <v>0.5120631890318745</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005688370087213</v>
+        <v>0.914222734481814</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01953749386048418</v>
+        <v>0.5201276723837316</v>
       </c>
       <c r="N3" t="n">
-        <v>145.8041846769172</v>
+        <v>36.67722898191955</v>
       </c>
       <c r="O3" t="n">
-        <v>287.1393572201336</v>
+        <v>73.64181257014536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_7</t>
+          <t>model_1_39_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999124688423967</v>
+        <v>0.9370535837969663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8276723104733508</v>
+        <v>0.7336678047756604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8197365160313794</v>
+        <v>0.6411622385015241</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997960557321188</v>
+        <v>0.9518833942580361</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003643507803281666</v>
+        <v>0.2620161379150707</v>
       </c>
       <c r="G4" t="n">
-        <v>1.152356053360751</v>
+        <v>1.780964615812155</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6447920298784048</v>
+        <v>1.283541866271164</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001156386420476898</v>
+        <v>0.2887501769720626</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05412088775297216</v>
+        <v>1.275448905110755</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01908797475711257</v>
+        <v>0.5118751194530465</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005601994086611</v>
+        <v>0.914285731127784</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01938859127856266</v>
+        <v>0.5199366408970377</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8347869443018</v>
+        <v>36.6786983640445</v>
       </c>
       <c r="O4" t="n">
-        <v>287.1699594875182</v>
+        <v>73.64328195227033</v>
       </c>
     </row>
     <row r="5">
@@ -659,144 +659,144 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999066593924989</v>
+        <v>0.937074920065408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8276625336331447</v>
+        <v>0.7336440808281497</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8196248325676131</v>
+        <v>0.6408283371814448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997810888897536</v>
+        <v>0.9521502346522367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003885327706217612</v>
+        <v>0.2619273251280712</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152421431136227</v>
+        <v>1.781123257958398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6451915151525179</v>
+        <v>1.284736211932376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001241250062139244</v>
+        <v>0.2871488543130641</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05554366997040924</v>
+        <v>1.275703376362176</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01971123462956497</v>
+        <v>0.5117883597035704</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005973798880071</v>
+        <v>0.9143147847699173</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02002166687097489</v>
+        <v>0.5198485147682352</v>
       </c>
       <c r="N5" t="n">
-        <v>145.7062660800984</v>
+        <v>36.67937639741348</v>
       </c>
       <c r="O5" t="n">
-        <v>287.0414386233148</v>
+        <v>73.6439599856393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_4</t>
+          <t>model_1_39_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999082170446788</v>
+        <v>0.9369825116251629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8276537190538824</v>
+        <v>0.733616539513448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8196271746938698</v>
+        <v>0.6421354981941219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997876405810965</v>
+        <v>0.9510792036142743</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003820490018385793</v>
+        <v>0.2623119777276043</v>
       </c>
       <c r="G6" t="n">
-        <v>1.152480374268342</v>
+        <v>1.781307426856624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6451831375027018</v>
+        <v>1.280060572783581</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001204101251933718</v>
+        <v>0.2935761655704849</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05537207391190785</v>
+        <v>1.274744094035647</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01954607382157807</v>
+        <v>0.5121640144793504</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005874109140557</v>
+        <v>0.9141889520002218</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01985390494536243</v>
+        <v>0.5202300857312169</v>
       </c>
       <c r="N6" t="n">
-        <v>145.7399233610403</v>
+        <v>36.6764414578432</v>
       </c>
       <c r="O6" t="n">
-        <v>287.0750959042567</v>
+        <v>73.64102504606902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_6</t>
+          <t>model_1_39_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999102551255225</v>
+        <v>0.9370950314809532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8276485012614179</v>
+        <v>0.7334727829567644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196928636745098</v>
+        <v>0.6404894776977297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999791315439966</v>
+        <v>0.9524163839168681</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000373565435916834</v>
+        <v>0.2618436108239535</v>
       </c>
       <c r="G7" t="n">
-        <v>1.152515265670578</v>
+        <v>1.782268727613105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6449481718278186</v>
+        <v>1.285948292657423</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00118326439813014</v>
+        <v>0.2855516791574548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0547371460562904</v>
+        <v>1.276004217674075</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01932784095332001</v>
+        <v>0.5117065671104422</v>
       </c>
       <c r="L7" t="n">
-        <v>1.005743671966563</v>
+        <v>0.9143421705272554</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01963223512758213</v>
+        <v>0.5197654340235278</v>
       </c>
       <c r="N7" t="n">
-        <v>145.7848347443441</v>
+        <v>36.68001571738398</v>
       </c>
       <c r="O7" t="n">
-        <v>287.1200072875605</v>
+        <v>73.6445993056098</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999148782701444</v>
+        <v>0.9371138249229829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8276417651088038</v>
+        <v>0.7334274394835384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8193545507753968</v>
+        <v>0.6401456303306179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998345452050237</v>
+        <v>0.9526817395056475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003543214730047433</v>
+        <v>0.2617653826197795</v>
       </c>
       <c r="G8" t="n">
-        <v>1.152560310354125</v>
+        <v>1.782571939627355</v>
       </c>
       <c r="H8" t="n">
-        <v>0.646158297451437</v>
+        <v>1.287178214752166</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009381468775817323</v>
+        <v>0.2839592668906489</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05899205467170852</v>
+        <v>1.276312788329293</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01882342883230213</v>
+        <v>0.5116301228619944</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005447790710761</v>
+        <v>0.9143677615972533</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01911987901988537</v>
+        <v>0.5196877858545832</v>
       </c>
       <c r="N8" t="n">
-        <v>145.8906118821712</v>
+        <v>36.68061332518473</v>
       </c>
       <c r="O8" t="n">
-        <v>287.2257844253876</v>
+        <v>73.64519691341054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_2</t>
+          <t>model_1_39_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999920733756963</v>
+        <v>0.9371754069021824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8276235871159758</v>
+        <v>0.7333372674136454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8193791374820523</v>
+        <v>0.6387185627482426</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998751448236021</v>
+        <v>0.9537341306814644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003299478527992094</v>
+        <v>0.2615090459873178</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152681866675868</v>
+        <v>1.783174920673934</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6460703522273492</v>
+        <v>1.29228275274819</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007079425767284856</v>
+        <v>0.2776438143857365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05833730783233151</v>
+        <v>1.277646193463996</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01816446676341503</v>
+        <v>0.5113795517884127</v>
       </c>
       <c r="L9" t="n">
-        <v>1.005073039554368</v>
+        <v>0.9144516179093547</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01845053895713369</v>
+        <v>0.5194332685370717</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0331518756222</v>
+        <v>36.68257280677949</v>
       </c>
       <c r="O9" t="n">
-        <v>287.3683244188386</v>
+        <v>73.64715639500531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_1</t>
+          <t>model_1_39_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999259948303693</v>
+        <v>0.9371313418830562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8274928618936079</v>
+        <v>0.7333029869060914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.819703486973413</v>
+        <v>0.6397968220555179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999200952753892</v>
+        <v>0.9529463075034855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003080484942916698</v>
+        <v>0.2616924678058271</v>
       </c>
       <c r="G10" t="n">
-        <v>1.153556026839776</v>
+        <v>1.783404154585795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6449101729036162</v>
+        <v>1.288425881727133</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004530685732523528</v>
+        <v>0.2823715809967901</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05205559317432538</v>
+        <v>1.276632291603816</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0175513103297637</v>
+        <v>0.5115588605486441</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004736330856367</v>
+        <v>0.9143916144790554</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01782772592258391</v>
+        <v>0.5196154012310339</v>
       </c>
       <c r="N10" t="n">
-        <v>146.1705066767711</v>
+        <v>36.68117050329842</v>
       </c>
       <c r="O10" t="n">
-        <v>287.5056792199875</v>
+        <v>73.64575409152424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_0</t>
+          <t>model_1_39_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999263431724679</v>
+        <v>0.9371475087938137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8273650994174204</v>
+        <v>0.7332403740784357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8195579171866194</v>
+        <v>0.6394427668446857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999538014661322</v>
+        <v>0.9532099947804478</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000306598511006402</v>
+        <v>0.261625172608194</v>
       </c>
       <c r="G11" t="n">
-        <v>1.154410375106335</v>
+        <v>1.783822846852634</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6454308675903557</v>
+        <v>1.289692316686979</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002619507660878932</v>
+        <v>0.2807891803533109</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05027035742100637</v>
+        <v>1.276957237718252</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01750995462605206</v>
+        <v>0.5114930816816529</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004714036962056</v>
+        <v>0.9144136289958315</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01778571890787936</v>
+        <v>0.5195485864126422</v>
       </c>
       <c r="N11" t="n">
-        <v>146.179942896016</v>
+        <v>36.68168487692397</v>
       </c>
       <c r="O11" t="n">
-        <v>287.5151154392324</v>
+        <v>73.64626846514979</v>
       </c>
     </row>
   </sheetData>
